--- a/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
+++ b/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\Terminal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED20073-E493-4F8B-9130-5F3CB97A57B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE30B639-B514-4A17-AE77-D2BB7098693B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminal" sheetId="1" r:id="rId1"/>
     <sheet name="Comandos" sheetId="2" r:id="rId2"/>
     <sheet name="Manejo de archivos de texto y u" sheetId="3" r:id="rId3"/>
+    <sheet name="Batch" sheetId="4" r:id="rId4"/>
+    <sheet name="Comunicacion" sheetId="5" r:id="rId5"/>
+    <sheet name="Procesos" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="170">
   <si>
     <t>La terminal es un programa que recibe instrucciones, las traduce a lenguaje del computador, las ejecuta y muestra resultados.</t>
   </si>
@@ -589,13 +592,701 @@
   </si>
   <si>
     <t>Notas adiconales</t>
+  </si>
+  <si>
+    <t>Utilidades Batch</t>
+  </si>
+  <si>
+    <r>
+      <t>cat:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Nos muestra el contenido completo de un archivo</t>
+    </r>
+  </si>
+  <si>
+    <t>ejemplo: cat tables.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>head:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Nos muestra las primeras lineas (También podemos escoger cuantas lineas queremos utilizando el modificador [-n #]).</t>
+    </r>
+  </si>
+  <si>
+    <t>1. head tables.txt</t>
+  </si>
+  <si>
+    <t>2. head -n 5 tables.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>tail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Muestras las ultimas lineas del final (Inverso a head, tambien le funciona modificadores)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. tailtables.txt</t>
+  </si>
+  <si>
+    <t>2. tail -n 5 tables.txt</t>
+  </si>
+  <si>
+    <t>Utilidades Batch Avanzadas:</t>
+  </si>
+  <si>
+    <r>
+      <t>grep:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Permite trabajar con expresiones regulares, funciona como un buscador dentro del archivo.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. grep hanks dump1.sql = [comando][expresión regular][archivo]</t>
+  </si>
+  <si>
+    <t>Para buscar sin importar si esta en mayuscula o miniscula:</t>
+  </si>
+  <si>
+    <r>
+      <t>4. grep </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>-i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> hanks dump1.sql</t>
+    </r>
+  </si>
+  <si>
+    <t>_Tambien podemos buscar una expresión de una frase que termine con la misma palabra que estemos buscando:</t>
+  </si>
+  <si>
+    <r>
+      <t>sed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Screem Editor, tratamiento de flujos de caracteres. Este comando nos permite reemplazar una expresión por otra.</t>
+    </r>
+  </si>
+  <si>
+    <t>ejemplos:</t>
+  </si>
+  <si>
+    <t>1. sed ‘s/hanks/selleck/g’ dump1.sql = [comando][subcomando- sustitución][expresión original][nueva expresión][modificador-(/g de global, indica que tiene que hacerse a lo largo de todo el flujo)][Indicar cual es el flujo a utilizar (Archivo de texto)]</t>
+  </si>
+  <si>
+    <t>SED no modifica el archivo, lo que hace es crear un nuevo flujo con la modificación</t>
+  </si>
+  <si>
+    <t>Para eliminar la ultima linea podemos utilizar:</t>
+  </si>
+  <si>
+    <t>2. sed ‘$d’ nuevasPelis.csv = [Comando][’$sub-comando’][archivo]</t>
+  </si>
+  <si>
+    <r>
+      <t>awk:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Trataminento de texto delimitado, este comando sirve para trabajar con archivos de textos delimitados por comas.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. awk -F ‘;’ ‘{ print $1}’ nuevasPelis.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. awk -F ‘;’ ‘NR &gt; 1 &amp;&amp; $3 &gt;0 { print $1, $3 * $4 }’ nuevasPelis.scv</t>
+  </si>
+  <si>
+    <t>Reemplazar dos valores al mismo tiempo 
+sed ‘s/NOMBRE_USUARIO/Ana/; s/PUNTOS_USUARIO/35/’ archivo-saludo.txt</t>
+  </si>
+  <si>
+    <t>Comunicación entre procesos: Qué son y cómo se utilizan los flujos estándar</t>
+  </si>
+  <si>
+    <r>
+      <t>FLUJOS ESTANDAR:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> son los canales donde ingresa a un proceso y donde sale la información. Son al menos tres: _ 0 entrada, 1 salida, 2 error_</t>
+    </r>
+  </si>
+  <si>
+    <t>Ejem:</t>
+  </si>
+  <si>
+    <t>**Entrada - Salida</t>
+  </si>
+  <si>
+    <t>Teclado Pantalla &lt;- Por defecto</t>
+  </si>
+  <si>
+    <t>Archivo Pantalla &lt;- Redirección de entrada ( &lt; )</t>
+  </si>
+  <si>
+    <t>Teclado Archivo &lt;- Redirección de salida ( &gt; )</t>
+  </si>
+  <si>
+    <r>
+      <t>Redirección de entrada ( &lt; ):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Comando &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Archivo.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>Realiza el comando con los datos del Archivo.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>Redirección de salida ( &gt; ):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Comando &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Archivo.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>Reescribe lo que el comando realiza en el Archivo.txt siendo nuevo o no.</t>
+  </si>
+  <si>
+    <r>
+      <t>Redirección de salida ( &gt;&gt; ):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Comando &gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Archivo.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>Agrega al final lo que el comando realiza en el Archivo.txt</t>
+  </si>
+  <si>
+    <t>Redirección pipe ( | ): Salida | Entrada</t>
+  </si>
+  <si>
+    <t>La salida de un comando le sirve de entrada al otro comando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ls &gt; archivo-en-carpeta.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ls -l &gt;&gt; archivo-en-carpeta.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ls -l | more : Muestra un resultado largo en varias iteraciones</t>
+  </si>
+  <si>
+    <t>_Tambien podemos buscar una expresión de una frase que inicie con la misma palabra que estemos buscando:</t>
+  </si>
+  <si>
+    <t>5. grep -i “^hanks”  dump1.sql</t>
+  </si>
+  <si>
+    <t>5. grep -i “hanks$” dump1.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cat archivo-en-carpeta.txt | wc : mostrará
+líneas, palabras, caracteres en ese órden. Es mas optimo usar   wc &lt; archivo-en-carpeta.txt</t>
+  </si>
+  <si>
+    <t>Cuenta cuantas lineas tiene el archivo + cuantas palabras hay + cuantos caracteres.</t>
+  </si>
+  <si>
+    <t>wc -c bytes</t>
+  </si>
+  <si>
+    <t>wc -m caracteres</t>
+  </si>
+  <si>
+    <t>wc -l lineas</t>
+  </si>
+  <si>
+    <t>wc -L maximo display</t>
+  </si>
+  <si>
+    <t>wc -w palabras</t>
+  </si>
+  <si>
+    <t>history | grep comando : lista el comando utilizado</t>
+  </si>
+  <si>
+    <t>!numero : Ejecuta el comando del historial</t>
+  </si>
+  <si>
+    <t>Administración de procesos en background y foreground</t>
+  </si>
+  <si>
+    <t>Procesos en primer plano: Son aquellos que mientras estén en ejecución, la terminal no permitirá realizar ninguna otra acción.</t>
+  </si>
+  <si>
+    <t>Procesos en segundo plano: Son aquellas actividades que se están ejecutando mientras nosotros estamos realizando otras actividades en la terminal.</t>
+  </si>
+  <si>
+    <r>
+      <t>Para dejar un proceso ejecutándose y que nos permita seguir realizando otros despliegues de comando utilizaremos el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> al final de dicho proceso.</t>
+    </r>
+  </si>
+  <si>
+    <t>Procesos que se ejecutan en Background</t>
+  </si>
+  <si>
+    <t>Un ejemplo sería un servidor, este tipo de procesos se les conoces como: Servicios O demonios (demons - depende del sistema operativo)</t>
+  </si>
+  <si>
+    <t>¿Cuales son los procesos que están en ejecución?</t>
+  </si>
+  <si>
+    <t>Para estos tenemos dos herramientas:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. ps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Simplemente al ejecutarlo me dicen los procesos que he ejecutado. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>ps ax:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> los procesos que corren del sistema.</t>
+    </r>
+  </si>
+  <si>
+    <t>al presionar ‘q’ salimos de allí.</t>
+  </si>
+  <si>
+    <t>¿Como detener un proceso?</t>
+  </si>
+  <si>
+    <r>
+      <t>Si el proceso no esta en background (&amp;) con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTRL+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> se puede finalizar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pero: si esta en background, primero hay que identificar el numero de ID que diferencia nuestro proceso a cortar; a través del comando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>ps ax</t>
+    </r>
+  </si>
+  <si>
+    <t>Segundo: se puede utilizar alguno de los siguientes comandos:</t>
+  </si>
+  <si>
+    <r>
+      <t>kill:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Se utiliza colocando [comando][-9][el número de ID del proceso]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>killall:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Hace lo mismo pero no se le coloca el ID; sino el nombre del proceso.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. top ó htop:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Es una utilidad interactiva, que me indica los recursos que utiliza el equipo e inclusive finalizar procesos del sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jobs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> para listar los procesos que se han enviado al segundo plano y se listarán con un índice</t>
+    </r>
+  </si>
+  <si>
+    <t>Es posible utilizar ese índice en los comandos fg o kill para indicar sobre cuál aplicarlo empleando el operador %.</t>
+  </si>
+  <si>
+    <t>Eje: kill %2 -9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>ps aux | grep init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :usando el pipe, buscara y mostrara los que contengan init</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CTRL + Z:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>  Coloca un proceso en segundo plano pero detenido.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">no se puede hacer uso del comando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>fg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cuando se usa el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Flag- Terminal devuelve dicho proceso al primer plano para continuar con la ejecucion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kill -3 &lt;pid&gt; , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>el sistema crea automáticamente un archivo dump para analizar posteriormente las causas de por qué se quedó “colgado” el proceso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pstree: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> al igual que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>ps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> nos permite ver todos los procesos que se están corriendo, no lo muestra en forma de árbol en el cual podemos identificar cuáles procesos son hijos de otros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pkill: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>matar un proceso usando parte de su nombre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>pgrep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  : Busca el PID de un proceso, similar al anterior pero mas resumido pgrep init</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +1326,26 @@
       <color rgb="FF4A4A4A"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Cooper_hewittmedium"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -644,7 +1355,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -652,12 +1363,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE9E9E9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -680,6 +1400,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -809,6 +1539,72 @@
         <a:xfrm>
           <a:off x="6362700" y="4953000"/>
           <a:ext cx="15240000" cy="10591800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>51203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8822155-81BD-4035-876A-5234E2B86802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6372225" y="38100"/>
+          <a:ext cx="14135100" cy="7090178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1443,7 +2239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6D1351-4BA0-4FA5-A42D-A7438EF8DA6B}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1462,7 +2258,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="60">
+    <row r="3" spans="1:1" ht="45">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -1622,4 +2418,500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F5A2F5-E32B-407A-BB00-1BA1066697F1}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30">
+      <c r="A13" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30">
+      <c r="A22" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="60">
+      <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="45">
+      <c r="A25" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30">
+      <c r="A26" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="30">
+      <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C39D026-C508-4180-9722-2ED6588C2215}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="81.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="47.25" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="22.5">
+      <c r="A18" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="45">
+      <c r="A19" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="45">
+      <c r="A21" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30">
+      <c r="A22" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A55A9C-1369-4C72-BEAF-938274E22341}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="94.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="47.25" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30">
+      <c r="A8" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30">
+      <c r="A14" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30">
+      <c r="A15" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30">
+      <c r="A19" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30">
+      <c r="A22" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30">
+      <c r="A26" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75">
+      <c r="A28" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
+++ b/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\Terminal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE30B639-B514-4A17-AE77-D2BB7098693B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57FC6C-0F2F-44FF-BF51-F77012A0FBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminal" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Batch" sheetId="4" r:id="rId4"/>
     <sheet name="Comunicacion" sheetId="5" r:id="rId5"/>
     <sheet name="Procesos" sheetId="6" r:id="rId6"/>
+    <sheet name="PermisosArchivos" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="217">
   <si>
     <t>La terminal es un programa que recibe instrucciones, las traduce a lenguaje del computador, las ejecuta y muestra resultados.</t>
   </si>
@@ -1279,6 +1280,429 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">  : Busca el PID de un proceso, similar al anterior pero mas resumido pgrep init</t>
+    </r>
+  </si>
+  <si>
+    <t>Permisos sobre archivos: El sistema de permisos octal</t>
+  </si>
+  <si>
+    <t>Todos los archivos de Unix tienen un:</t>
+  </si>
+  <si>
+    <t>1. Dueño</t>
+  </si>
+  <si>
+    <t>2. grupo</t>
+  </si>
+  <si>
+    <t>3. otros</t>
+  </si>
+  <si>
+    <t>Las operaciones que pueden hacerse sobre un archivo son:</t>
+  </si>
+  <si>
+    <t>4. Escribir [w]</t>
+  </si>
+  <si>
+    <t>5. leer [r]</t>
+  </si>
+  <si>
+    <t>6. Ejecutar [x]</t>
+  </si>
+  <si>
+    <t>Para alterar los permisos asociados se tienen los siguientes comandos:</t>
+  </si>
+  <si>
+    <t>“chonw www-data hello.php”</t>
+  </si>
+  <si>
+    <t>“chgrp www-data hello.php”</t>
+  </si>
+  <si>
+    <r>
+      <t>Para ejecutar un archivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> [./ (punto, barra es donde estamos actualmente)] [hello.php (El nombre del archivo)].</t>
+    </r>
+  </si>
+  <si>
+    <t>Permisos</t>
+  </si>
+  <si>
+    <t>7 = 111 = rwx = Todos los permisos.</t>
+  </si>
+  <si>
+    <t>6 = 110 = rw- = Permiso de lectura y escritura.</t>
+  </si>
+  <si>
+    <t>5 = 101 = r-x = Permiso de lectura y ejecución.</t>
+  </si>
+  <si>
+    <t>4 = 100 = r-- = Permiso de lectura.</t>
+  </si>
+  <si>
+    <t>3 = 011 = -wx = Permiso de escritura y ejecución.</t>
+  </si>
+  <si>
+    <t>2 = 010 = -w- = Permiso de escritura.</t>
+  </si>
+  <si>
+    <t>1 = 001 = --x = Permiso de ejecución.</t>
+  </si>
+  <si>
+    <t>0 = 000 = — = Sin permisos.</t>
+  </si>
+  <si>
+    <t>Super usuario - root:</t>
+  </si>
+  <si>
+    <t>Este usuario puede leer y escribir cualquier archivo del sistema, y ejecutar algunos archivos. y también hay otras operaciones que están reservadas para el.</t>
+  </si>
+  <si>
+    <r>
+      <t>Podemos utilizarlo con el comando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>sudo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>chmod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Cambia individualmente los permisos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>chown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Cambia quien es el propietario del archivo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>chgrp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Cambia quien es el grupo de usuarios que pueda acceder al archivo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>ejemplo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> [chown] [nombre del usuario] [nombre del archivo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>ejemplo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> [chgrp] [nombre del usuario] [nombre del archivo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>ejemplo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> [chmod ][o (Indica ‘others’)][-(menos quita el permiso)][w (Cual es el permiso que se desea quitar)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Para dar el permiso</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> chmod +x hello.php (Esto dará el permiso de ejecutar a los tres grupos)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dar permiso de ejecución al dueño:</t>
+  </si>
+  <si>
+    <t>$ chmod u+x archivo.txt</t>
+  </si>
+  <si>
+    <t>Quitar permiso de ejecución a todos los usuarios:</t>
+  </si>
+  <si>
+    <t>$ chmod -x archivo.txt</t>
+  </si>
+  <si>
+    <t>Dar permiso de lectura y escritura a los demás usuarios:</t>
+  </si>
+  <si>
+    <t>$ chmod o+r+w archivo.txt</t>
+  </si>
+  <si>
+    <t>Dejar solo permiso de lectura al grupo al que pertenece el archivo:</t>
+  </si>
+  <si>
+    <t>$ chmod g+r-w-x archivo.txt</t>
+  </si>
+  <si>
+    <t>chmod g+rx,o+x file (OK combinar con comas)</t>
+  </si>
+  <si>
+    <r>
+      <t>Un tip útil para cuando tenemos que volver a escribir un comando por que no teníamos permisos y debemos ejecutarlo con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>sudo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>, es utilizar “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>” que es un alias del último comando ejecutado.</t>
+    </r>
+  </si>
+  <si>
+    <t>por ejemplo:</t>
+  </si>
+  <si>
+    <t>Nos devuelve error de permisos. Entonces lo volvemos a ejecutar con sudo, sin necesidad de volver a escribir el comando:</t>
+  </si>
+  <si>
+    <t>sudo !!</t>
+  </si>
+  <si>
+    <r>
+      <t>chgrp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> www-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> hellop.php</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sudo chgrp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> www-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> hellop.php</t>
     </r>
   </si>
 </sst>
@@ -1286,7 +1710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1770,21 @@
       <name val="Lato"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1377,7 +1816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1410,6 +1849,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1605,6 +2052,194 @@
         <a:xfrm>
           <a:off x="6372225" y="38100"/>
           <a:ext cx="14135100" cy="7090178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6572250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636E6A7B-5F7B-458F-AB4C-5CCE822EFCB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6572250" y="4400550"/>
+          <a:ext cx="4476750" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8086</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13D70F5-2588-48F8-9907-80904DA39DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6589861" y="200025"/>
+          <a:ext cx="4687739" cy="5500606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AABF832-335F-4915-ACF1-E3EA008FB5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11153775" y="6019800"/>
+          <a:ext cx="6334125" cy="5295900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2760,7 +3395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A55A9C-1369-4C72-BEAF-938274E22341}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2914,4 +3549,262 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952475FC-1F7B-4534-A38B-059DA81FC5CD}">
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="98.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="47.25" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30">
+      <c r="A13" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75">
+      <c r="A15" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75">
+      <c r="A16" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75">
+      <c r="A17" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75">
+      <c r="A18" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75">
+      <c r="A19" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75">
+      <c r="A20" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75">
+      <c r="A21" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75">
+      <c r="A22" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75">
+      <c r="A23" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="30">
+      <c r="A30" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="45">
+      <c r="A41" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="30">
+      <c r="A46" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="30">
+      <c r="A51" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="14"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
+++ b/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\Terminal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57FC6C-0F2F-44FF-BF51-F77012A0FBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9209651A-30CD-4FF1-BFAA-6CE0754A49C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="728" firstSheet="1" activeTab="8" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminal" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Comunicacion" sheetId="5" r:id="rId5"/>
     <sheet name="Procesos" sheetId="6" r:id="rId6"/>
     <sheet name="PermisosArchivos" sheetId="7" r:id="rId7"/>
+    <sheet name="Sistemas de manejo de paquetes" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="260">
   <si>
     <t>La terminal es un programa que recibe instrucciones, las traduce a lenguaje del computador, las ejecuta y muestra resultados.</t>
   </si>
@@ -1703,6 +1705,404 @@
         <rFont val="Arial Unicode MS"/>
       </rPr>
       <t xml:space="preserve"> hellop.php</t>
+    </r>
+  </si>
+  <si>
+    <t>Sistemas de manejo de paquetes</t>
+  </si>
+  <si>
+    <t>Paquetes de Software:</t>
+  </si>
+  <si>
+    <r>
+      <t>Existen programas que se descargan e instalan sus archivos de programa en lugares ya indicados y se configuran para que dicho programa pueda correr en la computadora. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Los paquetes de software se encargan de realizar todo lo anterior dicho.</t>
+    </r>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Administradores de Paquetes:</t>
+  </si>
+  <si>
+    <t>Estos son los que conocen de donde realizar las descargas, que otros paquetes ya están instalados en nuestro sistema y como configurar todo, a medida que no haya conflicto.</t>
+  </si>
+  <si>
+    <t>Paquetes Binarios</t>
+  </si>
+  <si>
+    <t>Son archivos que ya son ejecutables</t>
+  </si>
+  <si>
+    <t>Dependiendo del sistema operativo, se pueden utilizar diferentes manejadores de paquetes.</t>
+  </si>
+  <si>
+    <r>
+      <t>apt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Se utiliza en las distribuciones de Linux basadas en Devian como Ubuntu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>zypper:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Se utiliza en las distribuciones de Suse linux</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rpm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> El universal…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ejemplo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> [APT][INSTALL][ LYNX] (lynx es un navegador de linea de comandos. )</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo apt install lynx si te pide ser root</t>
+  </si>
+  <si>
+    <t>Paquetes de Lenguajes</t>
+  </si>
+  <si>
+    <t>Estos son librerías escritas en el mismo lenguaje que vas a utilizar.</t>
+  </si>
+  <si>
+    <r>
+      <t>pip:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Es para Python</t>
+    </r>
+  </si>
+  <si>
+    <t>ejemplo: [sudo][pip][install][pandas] = pandas es el nombre de la librería.</t>
+  </si>
+  <si>
+    <r>
+      <t>composer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> PHP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>npm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> NODE JS</t>
+    </r>
+  </si>
+  <si>
+    <t>Otros:</t>
+  </si>
+  <si>
+    <t>Existen unos nuevos manjadores de paquetes que pretenden ser mas genéricos instalando tanto paquetes binarios como de lenguajes.</t>
+  </si>
+  <si>
+    <t>conda</t>
+  </si>
+  <si>
+    <t>homebrew</t>
+  </si>
+  <si>
+    <t>sudo apt install python3-pip para instalar pip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Es importante primero ejecutar : sudo apt-get update</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sudo apt </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> python3-pandas</t>
+    </r>
+  </si>
+  <si>
+    <t>Comprensión de Archivos</t>
+  </si>
+  <si>
+    <r>
+      <t>Los archivos en una transmisión de datos pueden perderse para esto lo comprimimos haciendo uso del comando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>gzip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Un archivo comprimido no podrá utilizarse como en clases pasadas pero para el envío y almacenamiento es ideal.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ejemplo:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Para ver el tamaño del archivo a comprimir es: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>ls dump4.sql -lh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Para comprimir: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>gzip dump4.sql</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. para verificar la extensión del archivo: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>ls dump4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Para verificar la compresión aplicar el punto 1</t>
+  </si>
+  <si>
+    <t>Si quisiéramos volver al archivo original, debemos descomprimirlo. Al descomprimirlo. esto volverá la extensión y el tamaño del archivo original.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>gzip -d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Descomprimir) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>dump4.sql.gz</t>
+    </r>
+  </si>
+  <si>
+    <t>Combinación de Archivos</t>
+  </si>
+  <si>
+    <r>
+      <t>1. [tar] [cf (create file, este creará unnuevo archivo donde combinará los otros)] [backup.tar (Luego nombre de este archivo creado)][backup/ (aquí todos los archivos que están dentro del dir. backup)]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Para ver el contenido de TAR es: **[tar] [tf (es un parametro) backup.tar]</t>
+  </si>
+  <si>
+    <r>
+      <t>3. Para agrupar y comprimir:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> [tar] [czf (Crea un archivo comprimido usando internamente la utilidad del gzip )] [backup.tgz] [backup/*]</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Para volver a recuperar los archivos: [tar] [xzf] [backup.tgz]</t>
+  </si>
+  <si>
+    <r>
+      <t>Nota:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Hay que recordar que al mover el archivo a otra carpeta. este se mantendrá comprimido. para usarlo hay que descomprimir.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Si quisiéramos enviar un grupo de archivos y no solo uno. Utilizaremos la herramienta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>tar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> solamente para agrupar solamente y para agrupar y comprimir utilizaremos el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>tar czf</t>
     </r>
   </si>
 </sst>
@@ -1710,7 +2110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1785,6 +2185,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1816,7 +2227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1856,6 +2267,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3555,7 +3970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952475FC-1F7B-4534-A38B-059DA81FC5CD}">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -3564,7 +3979,7 @@
     <col min="1" max="1" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="47.25" thickBot="1">
+    <row r="1" spans="1:1" ht="24" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>170</v>
       </c>
@@ -3759,7 +4174,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="45">
+    <row r="41" spans="1:1" ht="30">
       <c r="A41" s="4" t="s">
         <v>193</v>
       </c>
@@ -3807,4 +4222,301 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21A78E4-5467-42F5-B04B-974D09B9B991}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="75">
+      <c r="A3" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="45">
+      <c r="A6" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30">
+      <c r="A12" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30">
+      <c r="A16" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30">
+      <c r="A23" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75">
+      <c r="A24" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="45">
+      <c r="A28" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12B13F4-0229-47E1-AAF8-484583AAF3F5}">
+  <dimension ref="A2:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="22.5">
+      <c r="A2" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="90">
+      <c r="A3" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30">
+      <c r="A9" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="60">
+      <c r="A11" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30">
+      <c r="A12" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="22.5">
+      <c r="A15" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="45">
+      <c r="A16" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="75">
+      <c r="A19" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="45">
+      <c r="A21" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30">
+      <c r="A22" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="45">
+      <c r="A23" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
+++ b/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\Terminal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\Terminal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9209651A-30CD-4FF1-BFAA-6CE0754A49C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ADA663-3B51-4841-966B-732570017CFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="728" firstSheet="1" activeTab="8" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="728" firstSheet="3" activeTab="9" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminal" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Procesos" sheetId="6" r:id="rId6"/>
     <sheet name="PermisosArchivos" sheetId="7" r:id="rId7"/>
     <sheet name="Sistemas de manejo de paquetes" sheetId="8" r:id="rId8"/>
-    <sheet name="Hoja2" sheetId="9" r:id="rId9"/>
+    <sheet name="Comprension Archivos" sheetId="9" r:id="rId9"/>
+    <sheet name="búsqueda de archivos" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="275">
   <si>
     <t>La terminal es un programa que recibe instrucciones, las traduce a lenguaje del computador, las ejecuta y muestra resultados.</t>
   </si>
@@ -2104,13 +2105,313 @@
       </rPr>
       <t>tar czf</t>
     </r>
+  </si>
+  <si>
+    <t>Herramientas de búsqueda de archivos</t>
+  </si>
+  <si>
+    <r>
+      <t>La terminal contiene herramientas que nos permiten buscar en cada carpeta en nuestro sistema de archivos. Las principales herramientas para lograr esto son: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>locate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>whereis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>locate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> es una herramienta que nos permite hacer una búsqueda en todo nuestro sistema de archivos simplemente indicándole el nombre del archivo que estamos buscando, así: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>$ locate hello.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Esta herramienta funciona mediante una base de datos que tiene que ser estrictamente actualizada periódicamente. Dicha actualización se logra a través del comando </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>$ sudo updatedb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Este comando tiene una búsqueda muy rápida y eficiente, pero no funciona con los archivos nuevos creados antes de la última actualización de su base de datos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>whereis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> se usa para localizar archivos binarios (comandos), por ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>$ whereis echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. La respuesta de este comando es la ubicación del archivo binario y además, la ubicación del manual de dicho comando. Este es un comando interesante, especialmente cuando tenemos distintas versiones de un mismo ejecutable, como bien puede ser, por ejemplo, el interpreter de Python.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>find:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> esta es la herramienta más compleja e interesante de las tres. Esta herramienta lo que hace es buscar dentro de un árbol de directorios (donde le indiquemos que comience) utilizando una serie de criterios. Por ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>$ find . -user juan -perm 644</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Este comando responde con la lista de archivos que están dentro del directorio (y subdirectorios) en el que se encuentra ubicado el usuario actualmente, pertenecientes al usuario Juan con los permisos 644 especificados. Otro ejemplo puede ser: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>$ find . -type f -mtime +7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, este comando nos dará por respuesta sólo archivos (f) que hayan sido modificado hace más de 7 días. También podemos hacer operaciones a través de este comando, como por ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>$ find . -type f -mtime +7 -exec cp {} ./backup \;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, en donde </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> será reemplazado por la búsqueda, y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>\;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> le da finalización al comando. Este comando lo que hará será copiar en la carpeta ./backup todos los archivos que hayan sido modificados hace más de 7 días.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Búsquedas básicas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 👍</t>
+    </r>
+  </si>
+  <si>
+    <t>Algunas banderas que podemos utilizar para buscar:</t>
+  </si>
+  <si>
+    <t>-name = Busca nombre de un archivo</t>
+  </si>
+  <si>
+    <t>iname = Igual que name pero este no toma en consideración si tiene alguna mayúscula</t>
+  </si>
+  <si>
+    <t>-user = El usuario propietario</t>
+  </si>
+  <si>
+    <t>-group = El grupo propietario</t>
+  </si>
+  <si>
+    <t>-type = tipo de archivo, f para directorios</t>
+  </si>
+  <si>
+    <r>
+      <t>Búsquedas a través del tiempo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ⏰</t>
+    </r>
+  </si>
+  <si>
+    <t>-mmin = Tiempo en minutos</t>
+  </si>
+  <si>
+    <t>-mtime = Periodos de 24 horas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2196,6 +2497,25 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2227,7 +2547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2271,6 +2591,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3045,7 +3377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -3060,7 +3392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30">
+    <row r="18" spans="1:1" ht="31.5">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -3070,27 +3402,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="15.75">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" ht="15.75">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" ht="15.75">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" ht="15.75">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -3110,7 +3442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" ht="15.75">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -3137,6 +3469,107 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0620A5E-3EA3-4F3A-A6BA-B7FFAC0EBCDB}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="47.25" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="61.5">
+      <c r="A3" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="153.75">
+      <c r="A4" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="107.25">
+      <c r="A5" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="264.75">
+      <c r="A6" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75">
+      <c r="A7" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30">
+      <c r="A10" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="15" spans="1:1" ht="15.75">
+      <c r="A15" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="18"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3153,67 +3586,67 @@
     <col min="1" max="1" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30">
+    <row r="2" spans="1:1" ht="30.75">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30">
+    <row r="3" spans="1:1" ht="30.75">
       <c r="A3" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30">
+    <row r="4" spans="1:1" ht="30.75">
       <c r="A4" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="15.75">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="45">
+    <row r="6" spans="1:1" ht="45.75">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30">
+    <row r="7" spans="1:1" ht="30.75">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="15.75">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" ht="15.75">
       <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" ht="15.75">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -3233,17 +3666,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="15.75">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" ht="15.75">
       <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
@@ -3258,12 +3691,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" ht="15.75">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" ht="15.75">
       <c r="A23" s="6" t="s">
         <v>37</v>
       </c>
@@ -3308,7 +3741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45">
+    <row r="3" spans="1:1" ht="60">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -3466,7 +3899,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3483,12 +3917,12 @@
     <col min="1" max="1" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>88</v>
       </c>
@@ -3498,7 +3932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30">
+    <row r="4" spans="1:1" ht="30.75">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
@@ -3518,7 +3952,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30">
+    <row r="8" spans="1:1" ht="30.75">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -3538,17 +3972,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30">
+    <row r="13" spans="1:1" ht="30.75">
       <c r="A13" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" ht="15.75">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -3563,7 +3997,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
@@ -3588,12 +4022,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30">
+    <row r="22" spans="1:1" ht="30.75">
       <c r="A22" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" ht="15.75">
       <c r="A23" s="3" t="s">
         <v>103</v>
       </c>
@@ -3608,7 +4042,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30">
+    <row r="26" spans="1:1" ht="31.5">
       <c r="A26" s="3" t="s">
         <v>105</v>
       </c>
@@ -3623,12 +4057,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30">
+    <row r="29" spans="1:1" ht="30.75">
       <c r="A29" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" ht="15.75">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -3667,12 +4101,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30">
+    <row r="3" spans="1:1" ht="30.75">
       <c r="A3" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -3697,7 +4131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>119</v>
       </c>
@@ -3707,7 +4141,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>121</v>
       </c>
@@ -3722,7 +4156,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>123</v>
       </c>
@@ -3740,12 +4174,12 @@
     <row r="17" spans="1:1">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" ht="22.5">
+    <row r="18" spans="1:1" ht="23.25">
       <c r="A18" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="45">
+    <row r="19" spans="1:1" ht="46.5">
       <c r="A19" s="10" t="s">
         <v>126</v>
       </c>
@@ -3834,12 +4268,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="30.75">
       <c r="A6" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>146</v>
       </c>
@@ -3849,22 +4283,22 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" ht="15.75">
       <c r="A11" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>148</v>
       </c>
@@ -3874,12 +4308,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="30">
+    <row r="14" spans="1:1" ht="30.75">
       <c r="A14" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="30">
+    <row r="15" spans="1:1" ht="30.75">
       <c r="A15" s="7" t="s">
         <v>158</v>
       </c>
@@ -3889,32 +4323,32 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30">
+    <row r="19" spans="1:1" ht="30.75">
       <c r="A19" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30">
+    <row r="22" spans="1:1" ht="45.75">
       <c r="A22" s="2" t="s">
         <v>167</v>
       </c>
@@ -3924,22 +4358,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" ht="15.75">
       <c r="A24" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" ht="15.75">
       <c r="A25" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30">
+    <row r="26" spans="1:1" ht="30.75">
       <c r="A26" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" ht="15.75">
       <c r="A27" s="3" t="s">
         <v>168</v>
       </c>
@@ -3970,7 +4404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952475FC-1F7B-4534-A38B-059DA81FC5CD}">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -4029,17 +4463,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30">
+    <row r="13" spans="1:1" ht="30.75">
       <c r="A13" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>201</v>
       </c>
@@ -4089,12 +4523,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" ht="15.75">
       <c r="A24" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" ht="15.75">
       <c r="A25" s="7" t="s">
         <v>198</v>
       </c>
@@ -4104,12 +4538,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" ht="15.75">
       <c r="A27" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" ht="15.75">
       <c r="A28" s="3" t="s">
         <v>199</v>
       </c>
@@ -4119,12 +4553,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30">
+    <row r="30" spans="1:1" ht="30.75">
       <c r="A30" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" ht="15.75">
       <c r="A31" s="3" t="s">
         <v>183</v>
       </c>
@@ -4169,7 +4603,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" ht="15.75">
       <c r="A40" s="3" t="s">
         <v>192</v>
       </c>
@@ -4179,7 +4613,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" ht="15.75">
       <c r="A42" s="4" t="s">
         <v>194</v>
       </c>
@@ -4189,7 +4623,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="30">
+    <row r="46" spans="1:1" ht="30.75">
       <c r="A46" s="4" t="s">
         <v>211</v>
       </c>
@@ -4228,7 +4662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21A78E4-5467-42F5-B04B-974D09B9B991}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4242,12 +4676,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="75">
+    <row r="3" spans="1:1" ht="77.25">
       <c r="A3" s="2" t="s">
         <v>219</v>
       </c>
@@ -4257,7 +4691,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="15.75">
       <c r="A5" s="7" t="s">
         <v>221</v>
       </c>
@@ -4272,12 +4706,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="15.75">
       <c r="A9" s="7" t="s">
         <v>224</v>
       </c>
@@ -4292,17 +4726,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30">
+    <row r="12" spans="1:1" ht="30.75">
       <c r="A12" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" ht="15.75">
       <c r="A13" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" ht="15.75">
       <c r="A14" s="7" t="s">
         <v>228</v>
       </c>
@@ -4312,22 +4746,22 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
+    <row r="16" spans="1:1" ht="30.75">
       <c r="A16" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="15.75">
       <c r="A18" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" ht="15.75">
       <c r="A19" s="7" t="s">
         <v>231</v>
       </c>
@@ -4337,12 +4771,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="15.75">
       <c r="A21" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" ht="15.75">
       <c r="A22" s="7" t="s">
         <v>241</v>
       </c>
@@ -4357,17 +4791,17 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" ht="15.75">
       <c r="A25" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" ht="15.75">
       <c r="A26" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" ht="15.75">
       <c r="A27" s="3" t="s">
         <v>237</v>
       </c>
@@ -4377,12 +4811,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" ht="15.75">
       <c r="A29" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" ht="15.75">
       <c r="A30" s="7" t="s">
         <v>240</v>
       </c>
@@ -4397,8 +4831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12B13F4-0229-47E1-AAF8-484583AAF3F5}">
   <dimension ref="A2:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4406,12 +4840,12 @@
     <col min="1" max="1" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="22.5">
+    <row r="2" spans="1:1" ht="23.25">
       <c r="A2" s="10" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="90">
+    <row r="3" spans="1:1" ht="60.75">
       <c r="A3" s="4" t="s">
         <v>245</v>
       </c>
@@ -4421,27 +4855,27 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="31.5">
       <c r="A6" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30">
+    <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>250</v>
       </c>
@@ -4451,12 +4885,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="60">
+    <row r="11" spans="1:1" ht="45">
       <c r="A11" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30">
+    <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>252</v>
       </c>
@@ -4471,12 +4905,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="22.5">
+    <row r="15" spans="1:1" ht="23.25">
       <c r="A15" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="45">
+    <row r="16" spans="1:1" ht="46.5">
       <c r="A16" s="4" t="s">
         <v>259</v>
       </c>
@@ -4486,12 +4920,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="75">
+    <row r="19" spans="1:1" ht="60">
       <c r="A19" s="8" t="s">
         <v>254</v>
       </c>
@@ -4501,12 +4935,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="45">
+    <row r="21" spans="1:1" ht="45.75">
       <c r="A21" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>257</v>
       </c>
@@ -4518,5 +4952,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
+++ b/Curso de Introducción a la Terminal y Línea de Comandos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\Terminal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9209651A-30CD-4FF1-BFAA-6CE0754A49C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B0E007-4E9E-4986-A3B3-7D43833A06B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="728" firstSheet="1" activeTab="8" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="728" firstSheet="5" activeTab="10" xr2:uid="{28C23950-0AF7-4D55-B9F8-19B2488F788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminal" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="Procesos" sheetId="6" r:id="rId6"/>
     <sheet name="PermisosArchivos" sheetId="7" r:id="rId7"/>
     <sheet name="Sistemas de manejo de paquetes" sheetId="8" r:id="rId8"/>
-    <sheet name="Hoja2" sheetId="9" r:id="rId9"/>
+    <sheet name="ComprimirCombinarArc" sheetId="9" r:id="rId9"/>
+    <sheet name="BusquedaArchivos" sheetId="10" r:id="rId10"/>
+    <sheet name="Acceso seguro a otras computado" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="319">
   <si>
     <t>La terminal es un programa que recibe instrucciones, las traduce a lenguaje del computador, las ejecuta y muestra resultados.</t>
   </si>
@@ -2038,11 +2040,65 @@
     </r>
   </si>
   <si>
-    <t>2. Para ver el contenido de TAR es: **[tar] [tf (es un parametro) backup.tar]</t>
-  </si>
-  <si>
-    <r>
-      <t>3. Para agrupar y comprimir:</t>
+    <r>
+      <t>Nota:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> Hay que recordar que al mover el archivo a otra carpeta. este se mantendrá comprimido. para usarlo hay que descomprimir.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Si quisiéramos enviar un grupo de archivos y no solo uno. Utilizaremos la herramienta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>tar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> solamente para agrupar solamente y para agrupar y comprimir utilizaremos el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>tar czf</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Para ver el contenido de TAR es: [tar] [tf (es un parametro) backup.tar]</t>
+  </si>
+  <si>
+    <t>Herramientas de búsqueda de archivos</t>
+  </si>
+  <si>
+    <t>3. Para desagrupar el contenido de TAR es: [tar] [xf (es un parametro) backup.tar]</t>
+  </si>
+  <si>
+    <r>
+      <t>4. Para agrupar y comprimir:</t>
     </r>
     <r>
       <rPr>
@@ -2055,62 +2111,274 @@
     </r>
   </si>
   <si>
-    <t>4. Para volver a recuperar los archivos: [tar] [xzf] [backup.tgz]</t>
-  </si>
-  <si>
-    <r>
-      <t>Nota:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF4A4A4A"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t> Hay que recordar que al mover el archivo a otra carpeta. este se mantendrá comprimido. para usarlo hay que descomprimir.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Si quisiéramos enviar un grupo de archivos y no solo uno. Utilizaremos la herramienta </t>
+    <t>5. Para volver a recuperar los archivos: [tar] [xzf] [backup.tgz]</t>
+  </si>
+  <si>
+    <t>LOCATE</t>
+  </si>
+  <si>
+    <t>Busqueda en todo el sistema de archivos</t>
+  </si>
+  <si>
+    <t>Ojo: Para ello debe tener la BD actualizada</t>
+  </si>
+  <si>
+    <t>tienes que usar: sudo updatedb</t>
+  </si>
+  <si>
+    <t>*se demorara bastante la primera vez, ojo con ese detalle.</t>
+  </si>
+  <si>
+    <t>Ejemplo: locate prueba.txt</t>
+  </si>
+  <si>
+    <t>locate -c &lt;archivo&gt; [Mostrara el conteo de los archivos]</t>
+  </si>
+  <si>
+    <t>WHEREIS</t>
+  </si>
+  <si>
+    <t>Para buscar archivos binarios (Osea Comandos)</t>
+  </si>
+  <si>
+    <t>Ej: whereis echo</t>
+  </si>
+  <si>
+    <t>echo: /bin/echo /usr/share/man/man1/echo.1.gz</t>
+  </si>
+  <si>
+    <t>/bin/echo -&gt; la primera ruta encontrada</t>
+  </si>
+  <si>
+    <t>/usr/share/man/man1/echo.1.gz -&gt;la segunda ruta encontrada</t>
+  </si>
+  <si>
+    <t>FIND</t>
+  </si>
+  <si>
+    <t>Busqueda compleja segun una serie de criterios</t>
+  </si>
+  <si>
+    <t>find /ruta -name “archivo*”</t>
+  </si>
+  <si>
+    <t>[buscara todos los archivos que comiencen con el nombre archivo]</t>
+  </si>
+  <si>
+    <t>find . -user &lt;nombreusuario&gt; -perm XXX</t>
+  </si>
+  <si>
+    <t>[. el punto es directorio actual]</t>
+  </si>
+  <si>
+    <t>[-user nombre del usuario a que pertenece]</t>
+  </si>
+  <si>
+    <t>[-perm = Permisos XXX puede ser 777 644 etc]</t>
+  </si>
+  <si>
+    <t>find . -name &lt;archivo&gt; -delete</t>
+  </si>
+  <si>
+    <t>[-delete -&gt;Eliminara el archivo encontrado]</t>
+  </si>
+  <si>
+    <r>
+      <t>Búsquedas básicas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> 👍</t>
+    </r>
+  </si>
+  <si>
+    <t>Algunas banderas que podemos utilizar para buscar:</t>
+  </si>
+  <si>
+    <t>-name = Busca nombre de un archivo</t>
+  </si>
+  <si>
+    <t>iname = Igual que name pero este no toma en consideración si tiene alguna mayúscula</t>
+  </si>
+  <si>
+    <t>-user = El usuario propietario</t>
+  </si>
+  <si>
+    <t>-group = El grupo propietario</t>
+  </si>
+  <si>
+    <r>
+      <t>Búsquedas a través del tiempo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> ⏰</t>
+    </r>
+  </si>
+  <si>
+    <t>-mmin = Tiempo en minutos</t>
+  </si>
+  <si>
+    <t>-mtime = Periodos de 24 horas</t>
+  </si>
+  <si>
+    <r>
+      <t>-exec; El poder aumenta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> 👊</t>
+    </r>
+  </si>
+  <si>
+    <t>-exec Permite ejecutar acciones sobre el resultado de cada línea o archivo devuelto por find, ejemplo:</t>
+  </si>
+  <si>
+    <r>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> . -</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF4A4A4A"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>tar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF4A4A4A"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t> solamente para agrupar solamente y para agrupar y comprimir utilizaremos el </t>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> f -mtime +7 -exec cp {} ./backup/ \;</t>
+    </r>
+  </si>
+  <si>
+    <t>-type = tipo de archivo, se puede elegir
+f – archivo normal
+d – directorio o carpeta
+l – enlace simbólico
+c – dispositivos de caracteres
+b – dispositivos de bloque</t>
+  </si>
+  <si>
+    <t>-size [tamaño][bandera]
+c – bytes
+k – kilobytes
+M – megabytes
+G – gigabytes
+b – trozos de 512 bytes</t>
+  </si>
+  <si>
+    <t>Acceso seguro a otras computadoras</t>
+  </si>
+  <si>
+    <t>SSH: Funcionalidad para conectarse por consola a un equipo remoto y ejecutar comando como si fuera nuestra terminal. Para ejecutar el comando se usa de la siguiente forma:</t>
+  </si>
+  <si>
+    <t>ssh user@host</t>
+  </si>
+  <si>
+    <t>Donde user es el nombre del usuario o la cuenta a la que queremos conectarnos en la maquina remota. En cuanto al host, puede ser la dirección IP del equipo remoto o el nombre del dominio asignado en esa maquina.</t>
+  </si>
+  <si>
+    <t>También se pueden usar otros métodos de autenticación tales como las llaves públicas y privadas.</t>
+  </si>
+  <si>
+    <t>set smtp-use-starttls</t>
+  </si>
+  <si>
+    <t>set ssl-verify=ignore</t>
+  </si>
+  <si>
+    <t>set smtp-auth=login</t>
+  </si>
+  <si>
+    <t>set smtp=smtp://smtp.tu_proveedor_de_correo.com:587</t>
+  </si>
+  <si>
+    <t>set from="tu.direccion.de.correo@tu.proveedor"</t>
+  </si>
+  <si>
+    <t>set smtp-auth-user=tu.direccion.de.correo@tu.proveedor</t>
+  </si>
+  <si>
+    <t>set smtp-auth-password=tu.contraseña</t>
+  </si>
+  <si>
+    <t>En las líneas anteriores, se debe cambiar los datos de tu proveedor, tu dirección, y tu contraseña por los tuyos propios. Después de realizada esta configuración, se ejecuta el comando de la siguiente manera:</t>
+  </si>
+  <si>
+    <t>echo “contenido-correo” mail -s “asunto” correo@dominio.com</t>
+  </si>
+  <si>
+    <r>
+      <t>Comoando mail: Permite enviar mensajes de correo electrónico desde consola. Para hacerlo, se deben agregar las siguientes líneas al archivo </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF4A4A4A"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>tar czf</t>
-    </r>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/etc/mail.rc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> del sistema desde donde la vayamos a envíar. Las líneas son las siguientes:</t>
+    </r>
+  </si>
+  <si>
+    <t>Generar una nueva llave SSH: (Cualquier sistema operativo)</t>
+  </si>
+  <si>
+    <t>ssh-keygen -t rsa -b 4096 -C "youremail@example.com"</t>
+  </si>
+  <si>
+    <t>Comprobar proceso y agregarlo (Windows)</t>
+  </si>
+  <si>
+    <t>eval $(ssh-agent - s)</t>
+  </si>
+  <si>
+    <t>ssh-add ~/.ssh/id_rsa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2196,6 +2464,30 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2227,7 +2519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2271,6 +2563,31 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2676,6 +2993,138 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1BA516-4CED-4DA4-993C-36AA85335AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5162550" y="190500"/>
+          <a:ext cx="10801350" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74300F01-7AD8-4AD2-AF76-8FDF4962B239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4343400" y="95250"/>
+          <a:ext cx="9563100" cy="5962650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3140,6 +3589,357 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96F7060-742F-44BB-B78B-EBF9FC04AF42}">
+  <dimension ref="A1:A45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="47.25" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="22.5">
+      <c r="A3" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="22.5">
+      <c r="A10" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="22.5">
+      <c r="A16" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30">
+      <c r="A19" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="30">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="90">
+      <c r="A34" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="90">
+      <c r="A35" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" ht="30">
+      <c r="A43" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75">
+      <c r="A45" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FA275-6934-407D-8BE8-B72A319574CE}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="69.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.25">
+      <c r="A1" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="42.75">
+      <c r="A3" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="57">
+      <c r="A5" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="28.5">
+      <c r="A6" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="57.75">
+      <c r="A7" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="57">
+      <c r="A16" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30">
+      <c r="A21" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" display="mailto:correo@dominio.com" xr:uid="{AB6B1AF3-8CB2-41CD-AC1A-8FF58AF7AF8C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29EB9BC-326B-4AC4-ACFF-F092E8014C25}">
   <dimension ref="A1:A25"/>
@@ -3474,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F5A2F5-E32B-407A-BB00-1BA1066697F1}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4228,8 +5028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21A78E4-5467-42F5-B04B-974D09B9B991}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4395,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12B13F4-0229-47E1-AAF8-484583AAF3F5}">
-  <dimension ref="A2:A23"/>
+  <dimension ref="A2:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4411,7 +5211,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="90">
+    <row r="3" spans="1:1" ht="60">
       <c r="A3" s="4" t="s">
         <v>245</v>
       </c>
@@ -4436,12 +5236,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>250</v>
       </c>
@@ -4451,12 +5251,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="60">
+    <row r="11" spans="1:1" ht="45">
       <c r="A11" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30">
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
         <v>252</v>
       </c>
@@ -4478,7 +5278,7 @@
     </row>
     <row r="16" spans="1:1" ht="45">
       <c r="A16" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4491,32 +5291,38 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="75">
+    <row r="19" spans="1:1" ht="60">
       <c r="A19" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30">
       <c r="A20" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30">
+      <c r="A21" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="45">
+      <c r="A22" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="45">
+      <c r="A24" s="17" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="45">
-      <c r="A21" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="30">
-      <c r="A22" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="45">
-      <c r="A23" s="17" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>